--- a/Analyzed/raw/data_2009.xlsx
+++ b/Analyzed/raw/data_2009.xlsx
@@ -534,7 +534,7 @@
         <v>1</v>
       </c>
       <c r="R2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="S2">
         <v>1</v>
@@ -543,16 +543,16 @@
         <v>1</v>
       </c>
       <c r="U2">
+        <v>7</v>
+      </c>
+      <c r="V2">
+        <v>4</v>
+      </c>
+      <c r="W2">
         <v>6</v>
       </c>
-      <c r="V2">
-        <v>4</v>
-      </c>
-      <c r="W2">
+      <c r="X2">
         <v>5</v>
-      </c>
-      <c r="X2">
-        <v>4</v>
       </c>
     </row>
     <row r="3">
@@ -686,7 +686,7 @@
         <v>3</v>
       </c>
       <c r="R4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="S4">
         <v>2</v>
@@ -695,7 +695,7 @@
         <v>0</v>
       </c>
       <c r="U4">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="V4">
         <v>1</v>
@@ -762,13 +762,13 @@
         <v>4</v>
       </c>
       <c r="R5">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="S5">
         <v>2</v>
       </c>
       <c r="T5">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="U5">
         <v>1</v>
@@ -777,10 +777,10 @@
         <v>3</v>
       </c>
       <c r="W5">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="X5">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="6">
@@ -838,13 +838,13 @@
         <v>5</v>
       </c>
       <c r="R6">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="S6">
         <v>2</v>
       </c>
       <c r="T6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U6">
         <v>0</v>
@@ -853,16 +853,16 @@
         <v>1</v>
       </c>
       <c r="W6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X6">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>히어로즈</t>
+          <t>키움 히어로즈</t>
         </is>
       </c>
       <c r="B7">
@@ -886,26 +886,50 @@
       <c r="H7">
         <v>0.451</v>
       </c>
+      <c r="I7">
+        <v>35.41</v>
+      </c>
+      <c r="J7">
+        <v>2589</v>
+      </c>
+      <c r="K7">
+        <v>1123.522</v>
+      </c>
+      <c r="L7">
+        <v>698</v>
+      </c>
+      <c r="M7">
+        <v>61.34092355861669</v>
+      </c>
+      <c r="N7">
+        <v>85.70000000000002</v>
+      </c>
+      <c r="O7">
+        <v>1026.46</v>
+      </c>
+      <c r="P7">
+        <v>2919.4</v>
+      </c>
       <c r="Q7">
         <v>6</v>
       </c>
       <c r="R7">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="S7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="T7">
         <v>2</v>
       </c>
       <c r="U7">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="V7">
         <v>2</v>
       </c>
       <c r="W7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="X7">
         <v>2</v>
@@ -966,13 +990,13 @@
         <v>7</v>
       </c>
       <c r="R8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T8">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="U8">
         <v>6</v>
@@ -1042,13 +1066,13 @@
         <v>8</v>
       </c>
       <c r="R9">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="S9">
         <v>4</v>
       </c>
       <c r="T9">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="U9">
         <v>4</v>
@@ -1060,7 +1084,7 @@
         <v>5</v>
       </c>
       <c r="X9">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
   </sheetData>
